--- a/docs/templates/ccrcn_depthseries_template.xlsx
+++ b/docs/templates/ccrcn_depthseries_template.xlsx
@@ -21,16 +21,16 @@
     <t xml:space="preserve">definition</t>
   </si>
   <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
     <t xml:space="preserve">field_type</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">text_format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values</t>
+    <t xml:space="preserve">variable_codes</t>
   </si>
   <si>
     <t xml:space="preserve">study_id</t>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">Site identification code unique to each study.</t>
   </si>
   <si>
+    <t xml:space="preserve">optional</t>
+  </si>
+  <si>
     <t xml:space="preserve">core_id</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t xml:space="preserve">Mass of organic matter relative to sample dry mass. Ash free bulk density should not be used here but should be expressed as a loss on ignition fraction.</t>
   </si>
   <si>
+    <t xml:space="preserve">encouraged</t>
+  </si>
+  <si>
     <t xml:space="preserve">dimensionless</t>
   </si>
   <si>
@@ -138,13 +144,16 @@
     <t xml:space="preserve">Age of documented 137Cs Peak.</t>
   </si>
   <si>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
     <t xml:space="preserve">cs137_activity</t>
   </si>
   <si>
     <t xml:space="preserve">Radioactivity counts per unit dry weight for radiocesium (137Cs).</t>
   </si>
   <si>
-    <t xml:space="preserve">becquerelPerKilogram</t>
+    <t xml:space="preserve">becquerelsPerKilogram</t>
   </si>
   <si>
     <t xml:space="preserve">cs137_activity_se</t>
@@ -159,6 +168,9 @@
     <t xml:space="preserve">Reported unit for sample interval's Cs 137 activity measurements.</t>
   </si>
   <si>
+    <t xml:space="preserve">conditional</t>
+  </si>
+  <si>
     <t xml:space="preserve">excess_pb210_activity</t>
   </si>
   <si>
@@ -339,9 +351,6 @@
     <t xml:space="preserve">Most likely, median, or mean age of the depth interval from submitter generated age depth model.</t>
   </si>
   <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
     <t xml:space="preserve">age_min</t>
   </si>
   <si>
@@ -364,15 +373,6 @@
   </si>
   <si>
     <t xml:space="preserve">Any other submitter generated notes specific to the depth interval.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">format, units, or variable codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artificial horizon; pollen; pollution; tsunami</t>
   </si>
 </sst>
 </file>
@@ -762,9 +762,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -776,721 +778,827 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
@@ -1531,308 +1639,204 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="7.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="9.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="9.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="24.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="24.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="23.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="15.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="19.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="16.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="14.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="14.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="17.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="21.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="24.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="20.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="23.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="14.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="17.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="10.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="14.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="17.71" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="10.71" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="14.71" hidden="0" customWidth="1"/>
+    <col min="31" max="31" width="17.71" hidden="0" customWidth="1"/>
+    <col min="32" max="32" width="10.71" hidden="0" customWidth="1"/>
+    <col min="33" max="33" width="7.71" hidden="0" customWidth="1"/>
+    <col min="34" max="34" width="10.71" hidden="0" customWidth="1"/>
+    <col min="35" max="35" width="12.71" hidden="0" customWidth="1"/>
+    <col min="36" max="36" width="9.71" hidden="0" customWidth="1"/>
+    <col min="37" max="37" width="9.71" hidden="0" customWidth="1"/>
+    <col min="38" max="38" width="12.71" hidden="0" customWidth="1"/>
+    <col min="39" max="39" width="15.71" hidden="0" customWidth="1"/>
+    <col min="40" max="40" width="8.71" hidden="0" customWidth="1"/>
+    <col min="41" max="41" width="11.71" hidden="0" customWidth="1"/>
+    <col min="42" max="42" width="14.71" hidden="0" customWidth="1"/>
+    <col min="43" max="43" width="11.71" hidden="0" customWidth="1"/>
+    <col min="44" max="44" width="12.71" hidden="0" customWidth="1"/>
+    <col min="45" max="45" width="3.71" hidden="0" customWidth="1"/>
+    <col min="46" max="46" width="7.71" hidden="0" customWidth="1"/>
+    <col min="47" max="47" width="7.71" hidden="0" customWidth="1"/>
+    <col min="48" max="48" width="6.71" hidden="0" customWidth="1"/>
+    <col min="49" max="49" width="20.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" t="s">
-        <v>118</v>
-      </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX2" t="s">
         <v>118</v>
       </c>
     </row>
